--- a/benchmarks/pli-multi-output/ec4db49 caa9196/fun_uniprot_charts.xlsx
+++ b/benchmarks/pli-multi-output/ec4db49 caa9196/fun_uniprot_charts.xlsx
@@ -1631,7 +1631,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>#Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1753,7 +1753,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>Execution Time in s</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2455,10 +2455,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -2466,7 +2467,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9632540" cy="6298790"/>
+    <xdr:ext cx="9304694" cy="6084337"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -33498,7 +33499,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -64043,7 +64044,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/benchmarks/pli-multi-output/ec4db49 caa9196/fun_uniprot_charts.xlsx
+++ b/benchmarks/pli-multi-output/ec4db49 caa9196/fun_uniprot_charts.xlsx
@@ -1429,7 +1429,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F0ED-4DC9-9581-E7CA162AC1EB}"/>
+              <c16:uniqueId val="{00000000-7CF3-495F-B93F-5344C0B423B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1493,7 +1493,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F0ED-4DC9-9581-E7CA162AC1EB}"/>
+              <c16:uniqueId val="{00000001-7CF3-495F-B93F-5344C0B423B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1506,7 +1506,7 @@
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1517,11 +1517,11 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="70AD47"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1557,7 +1557,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F0ED-4DC9-9581-E7CA162AC1EB}"/>
+              <c16:uniqueId val="{00000002-7CF3-495F-B93F-5344C0B423B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1571,12 +1571,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567292096"/>
-        <c:axId val="567290528"/>
+        <c:axId val="266307696"/>
+        <c:axId val="266311616"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="567292096"/>
+        <c:axId val="266307696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1631,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>#Threads</a:t>
+                  <a:t>#Thread</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1703,7 +1703,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567290528"/>
+        <c:crossAx val="266311616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1712,7 +1712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567290528"/>
+        <c:axId val="266311616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1819,7 +1819,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567292096"/>
+        <c:crossAx val="266307696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2455,7 +2455,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2467,7 +2467,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
